--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/CREST syndrome with Type 2 Achalasia_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/CREST syndrome with Type 2 Achalasia_spec_overall.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of relief from antacids suggests that the pain may not be related to acid reflux, which is common in achalasia.</t>
+          <t>Absence of relief from antacids suggests that the pain may not be related to acid reflux, which is less common in achalasia.</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with achalasia, which is part of the diagnosis.</t>
+          <t>Dysphagia is a common symptom associated with achalasia, which is relevant to the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coughing can be associated with esophageal reflux or aspiration, which is not indicated in this case.</t>
+          <t>Coughing can be associated with esophageal issues; its absence may suggest a lower likelihood of esophageal complications.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids further supports the presence of achalasia, which is consistent with the diagnosis.</t>
+          <t>Dysphagia for solids further supports the presence of achalasia, which is consistent with the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting are common symptoms in esophageal disorders, including achalasia, and their absence weakens the diagnosis.</t>
+          <t>Nausea and vomiting are common in esophageal disorders; their absence may indicate a different underlying issue.</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shortness of breath can indicate complications or other conditions, and its absence suggests a lower likelihood of significant esophageal obstruction.</t>
+          <t>Shortness of breath can indicate pulmonary complications or severe esophageal issues, which are not present here.</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is more prevalent in females, which supports the likelihood of this diagnosis.</t>
+          <t>CREST syndrome is more prevalent in females, which supports the likelihood of having the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for scleroderma, which is part of CREST syndrome; its absence weakens the likelihood of this diagnosis.</t>
+          <t>Radiation exposure is a known risk factor for esophageal conditions; its absence may argue against achalasia.</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome typically presents in middle-aged individuals, aligning with the demographic profile for this condition.</t>
+          <t>CREST syndrome typically presents in middle-aged individuals, making this finding supportive of the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of previously diagnosed Coronary Artery Disease</t>
+          <t>Absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Coronary artery disease is often associated with vascular complications in CREST syndrome; its absence suggests a lower likelihood of the condition.</t>
+          <t>Hypertension is often associated with vascular conditions; its absence may reduce the likelihood of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of previously diagnosed Peripheral Artery Disease</t>
+          <t>Absence of prior myocardial infarction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Peripheral artery disease is another vascular condition that can be linked to CREST syndrome; its absence further reduces the likelihood.</t>
+          <t>A history of myocardial infarction can indicate cardiovascular issues related to CREST syndrome; its absence may suggest lower risk.</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of previously diagnosed Hyperlipidemia</t>
+          <t>Absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a risk factor for vascular diseases; its absence may indicate a lower risk for conditions associated with CREST syndrome.</t>
+          <t>Type 2 diabetes is a risk factor for vascular complications; its absence may argue against the presence of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicotine dependence can exacerbate vascular issues; its absence may support a diagnosis of CREST syndrome.</t>
+          <t>Nicotine dependence can exacerbate vascular issues; its absence may favor a diagnosis of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Absence of obesity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is commonly seen in patients with CREST syndrome; its absence suggests a lower likelihood of this diagnosis.</t>
+          <t>Obesity is a risk factor for various conditions, including achalasia; its absence may suggest a lower likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may suggest a lower genetic predisposition to autoimmune diseases, including CREST syndrome.</t>
+          <t>The absence of a family history of cancer may suggest a lower likelihood of genetic predispositions that could be linked to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lack of exposure to infectious agents that could mimic or exacerbate symptoms of achalasia.</t>
+          <t>Absence of recent travel may indicate a lack of exposure to infections or environmental factors that could trigger or exacerbate autoimmune conditions.</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures suggests that there are no recent interventions that could lead to complications or symptoms resembling achalasia.</t>
+          <t>The absence of recent medical procedures may suggest a lack of acute exacerbations or complications that could be associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may indicate a lower likelihood of autoimmune conditions, which are often associated with CREST syndrome.</t>
+          <t>The absence of gestational complications may indicate a lower likelihood of underlying autoimmune conditions that could affect pregnancy, such as CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -924,12 +924,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Hand thickening observed is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon, a hallmark of CREST syndrome, strongly argues against the diagnosis.</t>
+          <t>Hand thickening is a characteristic feature of CREST syndrome; its absence strongly suggests that the syndrome is not present.</t>
         </is>
       </c>
     </row>
@@ -941,83 +941,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with achalasia due to difficulty swallowing and subsequent malnutrition, which may support the diagnosis.</t>
+          <t>Weight loss can occur in patients with achalasia due to difficulty swallowing and subsequent malnutrition, which may support the diagnosis of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>Finger ulcers observed is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of hand thickening, which is a common feature of sclerodactyly in CREST syndrome, supports that the syndrome is not present.</t>
+          <t>Finger ulcers are another common manifestation of CREST syndrome; their absence further supports the likelihood of not having the syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Raynaud's phenomenon on exam is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice may suggest that there is no significant esophageal involvement affecting the vocal cords, which can be seen in achalasia, thus indirectly supporting the diagnosis of Type 2 Achalasia.</t>
+          <t>While the absence of Raynaud's phenomenon does not confirm the diagnosis, it does not rule it out, as not all patients with CREST syndrome exhibit this finding.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>Weakness on exam is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of finger ulcers, which can occur in CREST syndrome, further supports that the diagnosis is unlikely.</t>
+          <t>Weakness is often associated with systemic involvement in CREST syndrome; its absence may indicate that the syndrome is not present.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a cough may indicate that there is no significant aspiration or respiratory involvement, which can be associated with achalasia, thus supporting the diagnosis.</t>
+          <t>The absence of a hoarse voice does not negate the diagnosis of achalasia, as it is not a definitive symptom of the condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Obesity by vital signs is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of weakness may suggest that there is no significant myopathy or systemic involvement, which can be seen in CREST syndrome.</t>
+          <t>While obesity is not directly related to CREST syndrome, its absence may suggest a lack of systemic involvement that could be expected in such patients.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Cough observed is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may suggest that there is no significant gastric involvement or complications from achalasia, which can support the diagnosis.</t>
+          <t>The absence of cough does not provide strong evidence against achalasia, as it is not a primary symptom of the condition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>High blood pressure when checked is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of joint swelling, which can be associated with autoimmune conditions like CREST syndrome, supports that the diagnosis is not present.</t>
+          <t>The absence of high blood pressure does not support the diagnosis of CREST syndrome, as hypertension can be a common finding in other conditions.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/CREST syndrome with Type 2 Achalasia_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/CREST syndrome with Type 2 Achalasia_spec_overall.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, which is part of the systemic sclerosis spectrum.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pain previously better with antacids is absent.</t>
+          <t>Hand thickness reported is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of relief from antacids suggests that the pain may not be related to acid reflux, which is less common in achalasia.</t>
+          <t>Hand thickness is often seen in sclerodactyly, a component of CREST syndrome, and its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias are a hallmark of CREST syndrome, supporting the diagnosis.</t>
+          <t>Telangiectasias are a hallmark of CREST syndrome, indicating vascular involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Finger ulcers reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate esophageal involvement or complications, which are not present here.</t>
+          <t>Finger ulcers are common in CREST syndrome due to vascular involvement, and their absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with achalasia, which is relevant to the diagnosis.</t>
+          <t>Esophageal dysmotility, including difficulty swallowing liquids, is a characteristic of CREST syndrome and Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Weakness reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coughing can be associated with esophageal issues; its absence may suggest a lower likelihood of esophageal complications.</t>
+          <t>Muscle weakness can be associated with systemic sclerosis, and its absence may argue against CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -532,39 +532,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia for solids further supports the presence of achalasia, which is consistent with the diagnosis.</t>
+          <t>Dysphagia for solids is consistent with esophageal involvement seen in CREST syndrome and Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Hoarse voice reported is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting are common in esophageal disorders; their absence may indicate a different underlying issue.</t>
+          <t>Hoarseness can be associated with esophageal and systemic involvement in CREST syndrome, and its absence may argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reflux is often associated with achalasia, supporting the diagnosis of Type 2 Achalasia.</t>
+          <t>Non-progressive dysphagia for liquids is indicative of esophageal motility disorders like Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Cough reported is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shortness of breath can indicate pulmonary complications or severe esophageal issues, which are not present here.</t>
+          <t>A chronic cough can be associated with esophageal reflux and aspiration, which are common in CREST syndrome with esophageal involvement.</t>
         </is>
       </c>
     </row>
@@ -612,110 +612,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is more prevalent in females, which supports the likelihood of having the condition.</t>
+          <t>CREST syndrome is more common in females, which supports the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for esophageal conditions; its absence may argue against achalasia.</t>
+          <t>Hypertension can be associated with scleroderma renal crisis, a complication of CREST syndrome, so its absence may argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome typically presents in middle-aged individuals, making this finding supportive of the diagnosis.</t>
+          <t>CREST syndrome often presents in middle-aged individuals, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with vascular conditions; its absence may reduce the likelihood of CREST syndrome.</t>
+          <t>Cardiovascular complications can occur in CREST syndrome, so the absence of myocardial infarction might argue against it.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is often used to manage hypertension, which can be associated with vascular issues seen in CREST syndrome.</t>
+          <t>Amlodipine is sometimes used to manage Raynaud's phenomenon, a component of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Absence of previously diagnosed Hyperlipidemia.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A history of myocardial infarction can indicate cardiovascular issues related to CREST syndrome; its absence may suggest lower risk.</t>
+          <t>Hyperlipidemia can be a risk factor for vascular complications, which are seen in CREST syndrome, so its absence might argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can complicate the presentation of CREST syndrome; its absence may suggest a clearer clinical picture.</t>
+          <t>Obesity is not typically associated with CREST syndrome, so its absence does not detract from the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of type 2 diabetes</t>
+          <t>Absence of previously diagnosed Coronary Artery Disease.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Type 2 diabetes is a risk factor for vascular complications; its absence may argue against the presence of CREST syndrome.</t>
+          <t>Coronary artery disease can be a complication of CREST syndrome, so its absence might argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicotine dependence can exacerbate vascular issues; its absence may favor a diagnosis of CREST syndrome.</t>
+          <t>Type 2 diabetes is not commonly associated with CREST syndrome, so its absence is consistent with the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Absence of previously diagnosed Peripheral Artery Disease.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for various conditions, including achalasia; its absence may suggest a lower likelihood of the diagnosis.</t>
+          <t>Peripheral artery disease can be associated with vascular involvement in CREST syndrome, so its absence might argue against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -763,44 +763,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate symptoms of achalasia and is often reported in patients with autoimmune conditions like CREST syndrome.</t>
+          <t>Tobacco use, even if prior, can be associated with esophageal motility disorders, which are part of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a family history of rheumatoid arthritis, which is often associated with CREST syndrome, weakens the likelihood of this diagnosis.</t>
+          <t>The absence of a family history of cancer does not directly impact the likelihood of CREST syndrome, but it reduces the likelihood of other differential diagnoses.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with various gastrointestinal disorders, including achalasia, which may suggest a predisposition to esophageal motility disorders.</t>
+          <t>Social stress can exacerbate symptoms of autoimmune conditions like CREST syndrome, potentially influencing esophageal motility.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may suggest a lower likelihood of genetic predispositions that could be linked to CREST syndrome.</t>
+          <t>Absence of recent travel reduces the likelihood of infectious causes of esophageal symptoms, which could mimic Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
@@ -812,29 +812,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular issues may indicate a genetic predisposition that could overlap with autoimmune conditions like CREST syndrome.</t>
+          <t>While not directly related, vascular issues in family history can sometimes correlate with systemic sclerosis components of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lack of exposure to infections or environmental factors that could trigger or exacerbate autoimmune conditions.</t>
+          <t>The absence of current tobacco use reduces the risk of esophageal motility disorders, which are part of Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may suggest a healthier lifestyle, which can be more common in patients managing chronic conditions like CREST syndrome.</t>
+          <t>The absence of a family history of Rheumatoid Arthritis does not strongly impact the likelihood of CREST syndrome, but autoimmune conditions can cluster in families.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,19 +844,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures may suggest a lack of acute exacerbations or complications that could be associated with CREST syndrome.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal symptoms.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use may indicate a positive health behavior change, which can be seen in patients with chronic conditions who are managing their health.</t>
+          <t>Absence of alcohol use removes a potential confounder for esophageal symptoms, making a diagnosis of Type 2 Achalasia more straightforward.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may indicate a lower likelihood of underlying autoimmune conditions that could affect pregnancy, such as CREST syndrome.</t>
+          <t>The absence of gestational complications does not directly impact the likelihood of CREST syndrome, but it reduces the likelihood of other autoimmune conditions.</t>
         </is>
       </c>
     </row>
@@ -914,110 +914,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias are a common cutaneous manifestation of CREST syndrome, supporting the diagnosis.</t>
+          <t>Hyperlipidemia can be associated with connective tissue disorders, including CREST syndrome, although it is not specific.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hand thickening is a characteristic feature of CREST syndrome; its absence strongly suggests that the syndrome is not present.</t>
+          <t>A strong positive ANA is often present in CREST syndrome, so its absence is a strong indicator against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with achalasia due to difficulty swallowing and subsequent malnutrition, which may support the diagnosis of Type 2 Achalasia.</t>
+          <t>Absence of aspiration on MBS does not strongly support CREST syndrome with Type 2 Achalasia, but it is consistent with the absence of severe esophageal dysfunction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Finger ulcers are another common manifestation of CREST syndrome; their absence further supports the likelihood of not having the syndrome.</t>
+          <t>Interstitial lung disease is a common finding in CREST syndrome, so its absence on CT is a strong indicator against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While the absence of Raynaud's phenomenon does not confirm the diagnosis, it does not rule it out, as not all patients with CREST syndrome exhibit this finding.</t>
+          <t>Absence of interstitial lung disease (ILD) on CT does not support CREST syndrome, but its presence would have been more indicative.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weakness is often associated with systemic involvement in CREST syndrome; its absence may indicate that the syndrome is not present.</t>
+          <t>A widened mediastinum is not typically associated with CREST syndrome, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice does not negate the diagnosis of achalasia, as it is not a definitive symptom of the condition.</t>
+          <t>The absence of a strong positive ANA does not support CREST syndrome, as a positive ANA is often seen in connective tissue diseases.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While obesity is not directly related to CREST syndrome, its absence may suggest a lack of systemic involvement that could be expected in such patients.</t>
+          <t>Aspiration is not a typical finding in CREST syndrome with Type 2 Achalasia, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of cough does not provide strong evidence against achalasia, as it is not a primary symptom of the condition.</t>
+          <t>Absence of a widened mediastinum on CXR does not support CREST syndrome, as it is not a typical finding.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>High blood pressure when checked is absent.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of high blood pressure does not support the diagnosis of CREST syndrome, as hypertension can be a common finding in other conditions.</t>
+          <t>Hyperlipidemia is not specifically associated with CREST syndrome, so its presence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
